--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>SL.NO</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>19MB527</t>
+  </si>
+  <si>
+    <t>PRAJWAL RR</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,11 +499,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>38171</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7337769929</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="3"/>
